--- a/biology/Médecine/Hippolyte_Baraduc/Hippolyte_Baraduc.xlsx
+++ b/biology/Médecine/Hippolyte_Baraduc/Hippolyte_Baraduc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ferdinand Hippolyte Baraduc (né le 15 novembre 1850  à Hyères[1] – mort le 1er mai 1909  à l'Hôpital Beaujon situé avant 1935 dans le 8e arrondissement de Paris[2],[3]) est un médecin et parapsychologue français. Ses expérimentations photographiques autour du « corps fluidique », qui cherchent à prouver et à capter l'existence de forces vitales invisibles, lui valurent un certain crédit dans le milieu médiumnique au tournant du siècle[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ferdinand Hippolyte Baraduc (né le 15 novembre 1850  à Hyères – mort le 1er mai 1909  à l'Hôpital Beaujon situé avant 1935 dans le 8e arrondissement de Paris,) est un médecin et parapsychologue français. Ses expérimentations photographiques autour du « corps fluidique », qui cherchent à prouver et à capter l'existence de forces vitales invisibles, lui valurent un certain crédit dans le milieu médiumnique au tournant du siècle.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,10 +551,12 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Des Indications dans le traitement de l'attaque de l'hémorrhagie cérébrale, Impr. de A. Parent, 1877. [1]
-Des Varices vésicales en rapport avec les hémorrhoïdes chez l'homme, Impr. de Parent, 1877. [2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des Indications dans le traitement de l'attaque de l'hémorrhagie cérébrale, Impr. de A. Parent, 1877. 
+Des Varices vésicales en rapport avec les hémorrhoïdes chez l'homme, Impr. de Parent, 1877. 
 Traitement de l'endométrite chronique par la galvano-caustique chimique intra-utérine, méthode du Dr Apostoli. Observations personnelles par le Dr Baraduc, Au bureau des publications du Journal de médecine de Parise, 1887.
 Du Lavage électrique et de la faradisation intrastomacale dans la dilatation de l'estomac fonctionnelle maladie de Bouchard, Au bureau des publications du Journal de médecine de Parise 1888
 Traitement des tumeurs fibreuses interstitielles par le drainage lymphogalvanique positif capsulothomie, Rue des Poitevins, 1889.
@@ -548,7 +564,7 @@
 L’Âme humaine, ses mouvements, ses lumières et l’iconographie de l’invisible fluidique, Georges Carré, Paris, 1896.
 Méthode de radiographie humaine du Dr Hipp. Baraduc,... La force courbe cosmique, photographies des vibrations de l'éther, P. Ollendorff, 1897
 La Force curative à Lourdes et la psychologie du miracle, 1907
-Mes morts : leurs manifestations, leurs influences, leurs télépathies, 1908 [3]</t>
+Mes morts : leurs manifestations, leurs influences, leurs télépathies, 1908 </t>
         </is>
       </c>
     </row>
